--- a/docs/Tests Definition & Results/Room Scheduler - Test Cases and Results.xlsx
+++ b/docs/Tests Definition & Results/Room Scheduler - Test Cases and Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="11130" tabRatio="617" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="9195" tabRatio="617" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Status" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="613">
   <si>
     <t>Prerequisite</t>
   </si>
@@ -1317,9 +1317,6 @@
     </r>
   </si>
   <si>
-    <t>Date: 20-11-2017</t>
-  </si>
-  <si>
     <t>1. Right click on an event.
 2. Click on Edit appointment.</t>
   </si>
@@ -1399,9 +1396,6 @@
 Authors: Alina Pila
 Reviewed by: Catalin Marin</t>
     </r>
-  </si>
-  <si>
-    <t>Date:13-11-2017</t>
   </si>
   <si>
     <t>Version: Sprint 2</t>
@@ -2269,9 +2263,6 @@
     <t>In Users tab, click on Add user button.</t>
   </si>
   <si>
-    <t>Add user page opens. It contains: First name, Last name, Username, Email, Password, Confirm Password, Department toggle, Active/Inactive toggle, User role and Create account button. The default values for toggle fields are: Active and Attendee.</t>
-  </si>
-  <si>
     <t>1. Fill in all fields, unique values for Username and Email, role Attendeee and then click on Create account.
 2. Login with just created user and add correctly an appointment.</t>
   </si>
@@ -2364,9 +2355,6 @@
     <t>In Rooms tab, click on Add room button.</t>
   </si>
   <si>
-    <t>Add room page opens. It contains: Name, Location, Active/Inactive toggle, Add room button. The default value for toggle field is: Active</t>
-  </si>
-  <si>
     <t>Click on Add room without filling in any field.</t>
   </si>
   <si>
@@ -2597,129 +2585,12 @@
   </si>
   <si>
     <t>Executed by: Catalin Marin</t>
-  </si>
-  <si>
-    <t>Date: 15-12-2017</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8378</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Show Admin tab only when logged in with Admin account</t>
-    </r>
   </si>
   <si>
     <t>The Login page contains the following elements:
 - App logo
 - Fields: Username, Password.
 - Buttons: Sign in and Register here</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8378</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Show Admin tab only when logged in with Admin account
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Show Register menu only when not logged in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Show Register menu only when not logged in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">#8365 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When page is refreshed, language selection is lost</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2879,40 +2750,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>#8443 -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Edit appointment - Timestamp for Created at is not displayed anymore</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>#8447</t>
     </r>
     <r>
@@ -2924,123 +2761,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Legend of hosts behavior in Day view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8451</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Register - When creating account without inserting mandatory fields, there is no validation message</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">blocked by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8452</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Register - User cannot be created anymore</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8452</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Register - User cannot be created anymore</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8422</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - In Add/Edit user, the admin should have the possibility to set user role
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8368</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Remove the delete button and add Active/Inactive toggle in Add/Edit panels</t>
     </r>
   </si>
   <si>
@@ -3073,52 +2793,6 @@
   <si>
     <t>1. Insert already existing Username and click on Save.
 2. Insert already existing email and click on Save.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8453</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Login - When inserting invalid credentials, show error message</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#8368</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Remove the delete button and add Active/Inactive toggle in Add/Edit panels</t>
-    </r>
   </si>
   <si>
     <t>Validation messages are missing</t>
@@ -3172,6 +2846,220 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Problems with responsive design</t>
+    </r>
+  </si>
+  <si>
+    <t>Date: 19-Dec-2017</t>
+  </si>
+  <si>
+    <t>Date: 20-Nov-2017</t>
+  </si>
+  <si>
+    <t>Date:13-Nov-2017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#8422</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - In Add/Edit user, the admin should have the possibility to set user role</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Add room page opens. It contains: Name, Location, Add room button.</t>
+  </si>
+  <si>
+    <t>Add user page opens. It contains: First name, Last name, Username, Email, Password, Confirm Password, Department toggle, User role and Create account button. The default values for User role is: Attendee.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#8482</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Register or Add/Edit user - Confirm password field is not used or validated</t>
+    </r>
+  </si>
+  <si>
+    <t>RS18.06</t>
+  </si>
+  <si>
+    <t>Admin - Users - Edit - Close</t>
+  </si>
+  <si>
+    <t>Modify all fields and click on Close button.</t>
+  </si>
+  <si>
+    <t>No modification is saved.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#8355</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Add Close (or X button) for all pop-ups</t>
+    </r>
+  </si>
+  <si>
+    <t>RS17.08</t>
+  </si>
+  <si>
+    <t>Admin - Users - Add - Close</t>
+  </si>
+  <si>
+    <t>Insert values in all fields and click on Close button.</t>
+  </si>
+  <si>
+    <t>Operation is cancelled, user is not saved.</t>
+  </si>
+  <si>
+    <t>RS21.06</t>
+  </si>
+  <si>
+    <t>Admin - Rooms - Add - Close</t>
+  </si>
+  <si>
+    <t>Operation is cancelled, room is not saved.</t>
+  </si>
+  <si>
+    <t>RS22.06</t>
+  </si>
+  <si>
+    <t>Admin - Rooms - Edit - Close</t>
+  </si>
+  <si>
+    <t>RS24.01</t>
+  </si>
+  <si>
+    <t>Application - Other issues</t>
+  </si>
+  <si>
+    <t>Navigate through application and perform different operations.</t>
+  </si>
+  <si>
+    <t>All operations have expected output.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#8481</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Admin - When editing user or room, modifications are displayed real time in grid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#8480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - On first login, calendar events are not shown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#8378</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Show and access Admin tab only when logged in with Admin account</t>
     </r>
   </si>
 </sst>
@@ -3576,244 +3464,62 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="102">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4011,60 +3717,72 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4126,6 +3844,74 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4183,6 +3969,176 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4475,9 +4431,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4893,9 +4847,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4925,16 +4877,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,9 +5263,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7262,87 +7212,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table134325" displayName="Table134325" ref="A7:M77" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A7:M77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table134325" displayName="Table134325" ref="A7:M82" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
+  <autoFilter ref="A7:M82"/>
   <tableColumns count="13">
-    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="45"/>
-    <tableColumn id="10" name="REQ ID" dataDxfId="44"/>
-    <tableColumn id="11" name="Priority" dataDxfId="43"/>
-    <tableColumn id="4" name="Prerequisite" dataDxfId="42"/>
-    <tableColumn id="5" name="Description" dataDxfId="41"/>
-    <tableColumn id="1" name="Test Steps" dataDxfId="40"/>
-    <tableColumn id="6" name="Expected Results" dataDxfId="39"/>
-    <tableColumn id="9" name="Chrome - Windows" dataDxfId="38"/>
-    <tableColumn id="3" name="Edge - Windows" dataDxfId="37"/>
-    <tableColumn id="7" name="Firefox - Windows " dataDxfId="36"/>
-    <tableColumn id="8" name="Safari - iOS" dataDxfId="35"/>
-    <tableColumn id="13" name="Samsung " dataDxfId="34"/>
-    <tableColumn id="12" name="Additional Notes" dataDxfId="33"/>
+    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="83"/>
+    <tableColumn id="10" name="REQ ID" dataDxfId="82"/>
+    <tableColumn id="11" name="Priority" dataDxfId="81"/>
+    <tableColumn id="4" name="Prerequisite" dataDxfId="80"/>
+    <tableColumn id="5" name="Description" dataDxfId="79"/>
+    <tableColumn id="1" name="Test Steps" dataDxfId="78"/>
+    <tableColumn id="6" name="Expected Results" dataDxfId="77"/>
+    <tableColumn id="9" name="Chrome - Windows" dataDxfId="76"/>
+    <tableColumn id="3" name="Edge - Windows" dataDxfId="75"/>
+    <tableColumn id="7" name="Firefox - Windows " dataDxfId="74"/>
+    <tableColumn id="8" name="Safari - iOS" dataDxfId="73"/>
+    <tableColumn id="13" name="Samsung " dataDxfId="72"/>
+    <tableColumn id="12" name="Additional Notes" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13432" displayName="Table13432" ref="A7:M45" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13432" displayName="Table13432" ref="A7:M45" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="A7:M45"/>
   <tableColumns count="13">
-    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="92"/>
-    <tableColumn id="10" name="REQ ID" dataDxfId="91"/>
-    <tableColumn id="11" name="Priority" dataDxfId="90"/>
-    <tableColumn id="4" name="Prerequisite" dataDxfId="89"/>
-    <tableColumn id="5" name="Description" dataDxfId="88"/>
-    <tableColumn id="1" name="Test Steps" dataDxfId="87"/>
-    <tableColumn id="6" name="Expected Results" dataDxfId="86"/>
-    <tableColumn id="9" name="Chrome - Windows" dataDxfId="85"/>
-    <tableColumn id="3" name="Edge - Windows" dataDxfId="84"/>
-    <tableColumn id="7" name="Firefox - Windows " dataDxfId="83"/>
-    <tableColumn id="8" name="Safari - iOS" dataDxfId="82"/>
-    <tableColumn id="13" name="Samsung " dataDxfId="81"/>
-    <tableColumn id="12" name="Additional Notes" dataDxfId="80"/>
+    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="61"/>
+    <tableColumn id="10" name="REQ ID" dataDxfId="60"/>
+    <tableColumn id="11" name="Priority" dataDxfId="59"/>
+    <tableColumn id="4" name="Prerequisite" dataDxfId="58"/>
+    <tableColumn id="5" name="Description" dataDxfId="57"/>
+    <tableColumn id="1" name="Test Steps" dataDxfId="56"/>
+    <tableColumn id="6" name="Expected Results" dataDxfId="55"/>
+    <tableColumn id="9" name="Chrome - Windows" dataDxfId="54"/>
+    <tableColumn id="3" name="Edge - Windows" dataDxfId="53"/>
+    <tableColumn id="7" name="Firefox - Windows " dataDxfId="52"/>
+    <tableColumn id="8" name="Safari - iOS" dataDxfId="51"/>
+    <tableColumn id="13" name="Samsung " dataDxfId="50"/>
+    <tableColumn id="12" name="Additional Notes" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134324" displayName="Table134324" ref="A7:M40" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134324" displayName="Table134324" ref="A7:M40" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A7:M40"/>
   <tableColumns count="13">
-    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="76"/>
-    <tableColumn id="10" name="REQ ID" dataDxfId="75"/>
-    <tableColumn id="11" name="Priority" dataDxfId="74"/>
-    <tableColumn id="4" name="Prerequisite" dataDxfId="73"/>
-    <tableColumn id="5" name="Description" dataDxfId="72"/>
-    <tableColumn id="1" name="Test Steps" dataDxfId="71"/>
-    <tableColumn id="6" name="Expected Results" dataDxfId="70"/>
-    <tableColumn id="9" name="Chrome - Windows" dataDxfId="69"/>
-    <tableColumn id="3" name="Edge - Windows" dataDxfId="68"/>
-    <tableColumn id="7" name="Firefox - Windows " dataDxfId="67"/>
-    <tableColumn id="8" name="Safari - iOS" dataDxfId="66"/>
-    <tableColumn id="13" name="Samsung " dataDxfId="65"/>
-    <tableColumn id="12" name="Additional Notes" dataDxfId="64"/>
+    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="39"/>
+    <tableColumn id="10" name="REQ ID" dataDxfId="38"/>
+    <tableColumn id="11" name="Priority" dataDxfId="37"/>
+    <tableColumn id="4" name="Prerequisite" dataDxfId="36"/>
+    <tableColumn id="5" name="Description" dataDxfId="35"/>
+    <tableColumn id="1" name="Test Steps" dataDxfId="34"/>
+    <tableColumn id="6" name="Expected Results" dataDxfId="33"/>
+    <tableColumn id="9" name="Chrome - Windows" dataDxfId="32"/>
+    <tableColumn id="3" name="Edge - Windows" dataDxfId="31"/>
+    <tableColumn id="7" name="Firefox - Windows " dataDxfId="30"/>
+    <tableColumn id="8" name="Safari - iOS" dataDxfId="29"/>
+    <tableColumn id="13" name="Samsung " dataDxfId="28"/>
+    <tableColumn id="12" name="Additional Notes" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table134323" displayName="Table134323" ref="A7:L62" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table134323" displayName="Table134323" ref="A7:L62" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A7:L62"/>
   <tableColumns count="12">
-    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="60"/>
-    <tableColumn id="10" name="REQ ID" dataDxfId="59"/>
-    <tableColumn id="11" name="Priority" dataDxfId="58"/>
-    <tableColumn id="4" name="Prerequisite" dataDxfId="57"/>
-    <tableColumn id="5" name="Description" dataDxfId="56"/>
-    <tableColumn id="1" name="Test Steps" dataDxfId="55"/>
-    <tableColumn id="6" name="Expected Results" dataDxfId="54"/>
-    <tableColumn id="9" name="Chrome - Windows" dataDxfId="53"/>
-    <tableColumn id="3" name="Edge - Windows" dataDxfId="52"/>
-    <tableColumn id="7" name="Firefox - Windows " dataDxfId="51"/>
-    <tableColumn id="8" name="Safari - iOS" dataDxfId="50"/>
-    <tableColumn id="12" name="Additional Notes" dataDxfId="49"/>
+    <tableColumn id="2" name="  TEST CASE ID" dataDxfId="11"/>
+    <tableColumn id="10" name="REQ ID" dataDxfId="10"/>
+    <tableColumn id="11" name="Priority" dataDxfId="9"/>
+    <tableColumn id="4" name="Prerequisite" dataDxfId="8"/>
+    <tableColumn id="5" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" name="Test Steps" dataDxfId="6"/>
+    <tableColumn id="6" name="Expected Results" dataDxfId="5"/>
+    <tableColumn id="9" name="Chrome - Windows" dataDxfId="4"/>
+    <tableColumn id="3" name="Edge - Windows" dataDxfId="3"/>
+    <tableColumn id="7" name="Firefox - Windows " dataDxfId="2"/>
+    <tableColumn id="8" name="Safari - iOS" dataDxfId="1"/>
+    <tableColumn id="12" name="Additional Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7614,7 +7564,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7640,11 +7590,11 @@
     <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="str">
         <f>'Room Scheduler - Sprint 3'!F5</f>
-        <v>Date: 15-12-2017</v>
+        <v>Date: 19-Dec-2017</v>
       </c>
       <c r="I2" s="10" t="str">
         <f>'Room Scheduler - Sprint 2'!F5</f>
-        <v>Date: 20-11-2017</v>
+        <v>Date: 20-Nov-2017</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -7652,7 +7602,7 @@
       <c r="M2" s="10"/>
       <c r="P2" s="10" t="str">
         <f>'Room Scheduler - Sprint 1'!F5</f>
-        <v>Date:13-11-2017</v>
+        <v>Date:13-Nov-2017</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>14</v>
@@ -7745,23 +7695,23 @@
       </c>
       <c r="C4" s="22">
         <f>'Room Scheduler - Sprint 3'!H1</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="22">
         <f>'Room Scheduler - Sprint 3'!I1</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" s="22">
         <f>'Room Scheduler - Sprint 3'!J1</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F4" s="22">
         <f>'Room Scheduler - Sprint 3'!K1</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G4" s="23">
         <f>'Room Scheduler - Sprint 3'!L1</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>13</v>
@@ -7819,7 +7769,7 @@
       </c>
       <c r="C5" s="22">
         <f>'Room Scheduler - Sprint 3'!H2</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D5" s="22">
         <f>'Room Scheduler - Sprint 3'!I2</f>
@@ -7893,7 +7843,7 @@
       </c>
       <c r="C6" s="22">
         <f>'Room Scheduler - Sprint 3'!H3</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="22">
         <f>'Room Scheduler - Sprint 3'!I3</f>
@@ -8036,23 +7986,23 @@
       </c>
       <c r="C8" s="22">
         <f>'Room Scheduler - Sprint 3'!H5</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="22">
         <f>'Room Scheduler - Sprint 3'!I5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E8" s="22">
         <f>'Room Scheduler - Sprint 3'!J5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F8" s="22">
         <f>'Room Scheduler - Sprint 3'!K5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G8" s="23">
         <f>'Room Scheduler - Sprint 3'!L5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>3</v>
@@ -8108,7 +8058,7 @@
       </c>
       <c r="C9" s="28">
         <f>(C5+C6)/C4</f>
-        <v>0.7857142857142857</v>
+        <v>0.81333333333333335</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" ref="D9:G9" si="0">(D5+D6)/D4</f>
@@ -8183,10 +8133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8206,7 +8156,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="51"/>
@@ -8216,28 +8166,28 @@
         <v>12</v>
       </c>
       <c r="H1" s="2">
-        <f>COUNTA(H8:H297)</f>
-        <v>70</v>
+        <f>COUNTA(H8:H303)</f>
+        <v>75</v>
       </c>
       <c r="I1" s="2">
-        <f>COUNTA(I8:I297)</f>
-        <v>70</v>
+        <f>COUNTA(I8:I303)</f>
+        <v>75</v>
       </c>
       <c r="J1" s="2">
-        <f>COUNTA(J8:J297)</f>
-        <v>70</v>
+        <f>COUNTA(J8:J303)</f>
+        <v>75</v>
       </c>
       <c r="K1" s="2">
-        <f>COUNTA(K8:K297)</f>
-        <v>70</v>
+        <f>COUNTA(K8:K303)</f>
+        <v>75</v>
       </c>
       <c r="L1" s="2">
-        <f>COUNTA(L8:L297)</f>
-        <v>70</v>
+        <f>COUNTA(L8:L303)</f>
+        <v>75</v>
       </c>
       <c r="M1" s="2">
         <f>SUM(H1:L1)</f>
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8250,28 +8200,28 @@
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNTIF(H7:H571,"PASSED")</f>
-        <v>39</v>
+        <f>COUNTIF(H7:H577,"PASSED")</f>
+        <v>47</v>
       </c>
       <c r="I2" s="2">
-        <f>COUNTIF(I7:I571,"PASSED")</f>
+        <f>COUNTIF(I7:I577,"PASSED")</f>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f>COUNTIF(J7:J571,"PASSED")</f>
+        <f>COUNTIF(J7:J577,"PASSED")</f>
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f>COUNTIF(K7:K571,"PASSED")</f>
+        <f>COUNTIF(K7:K577,"PASSED")</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f>COUNTIF(L7:L571,"PASSED")</f>
+        <f>COUNTIF(L7:L577,"PASSED")</f>
         <v>0</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ref="M2:M5" si="0">SUM(H2:L2)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8281,34 +8231,34 @@
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="F3" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(H8:H572,"Partially PASSED")</f>
-        <v>16</v>
+        <f>COUNTIF(H8:H578,"Partially PASSED")</f>
+        <v>14</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(I8:I572,"Partially PASSED")</f>
+        <f>COUNTIF(I8:I578,"Partially PASSED")</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f>COUNTIF(J8:J572,"Partially PASSED")</f>
+        <f>COUNTIF(J8:J578,"Partially PASSED")</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(K8:K572,"Partially PASSED")</f>
+        <f>COUNTIF(K8:K578,"Partially PASSED")</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(L8:L572,"Partially PASSED")</f>
+        <f>COUNTIF(L8:L578,"Partially PASSED")</f>
         <v>0</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -8318,29 +8268,29 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF(H5:H571,"FAILED")</f>
+        <f>COUNTIF(H5:H577,"FAILED")</f>
         <v>9</v>
       </c>
       <c r="I4" s="2">
-        <f>COUNTIF(I5:I571,"FAILED")</f>
+        <f>COUNTIF(I5:I577,"FAILED")</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f>COUNTIF(J5:J571,"FAILED")</f>
+        <f>COUNTIF(J5:J577,"FAILED")</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f>COUNTIF(K5:K571,"FAILED")</f>
+        <f>COUNTIF(K5:K577,"FAILED")</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f>COUNTIF(L5:L571,"FAILED")</f>
+        <f>COUNTIF(L5:L577,"FAILED")</f>
         <v>0</v>
       </c>
       <c r="M4" s="2">
@@ -8355,34 +8305,34 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="17" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF(H7:H571,"NOT TESTED")</f>
-        <v>6</v>
+        <f>COUNTIF(H7:H577,"NOT TESTED")</f>
+        <v>5</v>
       </c>
       <c r="I5" s="2">
-        <f>COUNTIF(I7:I571,"NOT TESTED")</f>
-        <v>70</v>
+        <f>COUNTIF(I7:I577,"NOT TESTED")</f>
+        <v>75</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J7:J571,"NOT TESTED")</f>
-        <v>70</v>
+        <f>COUNTIF(J7:J577,"NOT TESTED")</f>
+        <v>75</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(K7:K571,"NOT TESTED")</f>
-        <v>70</v>
+        <f>COUNTIF(K7:K577,"NOT TESTED")</f>
+        <v>75</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(L7:L571,"NOT TESTED")</f>
-        <v>70</v>
+        <f>COUNTIF(L7:L577,"NOT TESTED")</f>
+        <v>75</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8397,7 +8347,7 @@
       </c>
       <c r="H6" s="15">
         <f t="shared" ref="H6:M6" si="1">H2/H1</f>
-        <v>0.55714285714285716</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" si="1"/>
@@ -8417,7 +8367,7 @@
       </c>
       <c r="M6" s="15">
         <f t="shared" si="1"/>
-        <v>0.11142857142857143</v>
+        <v>0.12533333333333332</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -8472,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>293</v>
@@ -8481,7 +8431,7 @@
         <v>204</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>8</v>
@@ -8509,16 +8459,16 @@
         <v>212</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>17</v>
@@ -8536,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -8550,19 +8500,19 @@
         <v>10</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>3</v>
@@ -8576,9 +8526,7 @@
       <c r="L10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>596</v>
-      </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:15" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
@@ -8591,16 +8539,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>8</v>
@@ -8619,7 +8567,7 @@
       </c>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:15" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>42</v>
       </c>
@@ -8630,19 +8578,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>388</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>3</v>
@@ -8656,31 +8604,29 @@
       <c r="L12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>574</v>
-      </c>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:15" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>8</v>
@@ -8699,7 +8645,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:15" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>84</v>
       </c>
@@ -8710,19 +8656,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>3</v>
@@ -8736,31 +8682,29 @@
       <c r="L14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>574</v>
-      </c>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:15" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>8</v>
@@ -8781,7 +8725,7 @@
     </row>
     <row r="16" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>236</v>
@@ -8790,19 +8734,19 @@
         <v>10</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>393</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>3</v>
@@ -8816,9 +8760,7 @@
       <c r="L16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>575</v>
-      </c>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" s="43" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -8831,10 +8773,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>201</v>
@@ -8859,7 +8801,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
@@ -8870,19 +8812,19 @@
         <v>10</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>203</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>3</v>
@@ -8896,9 +8838,7 @@
       <c r="L18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>576</v>
-      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -8914,13 +8854,13 @@
         <v>108</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>17</v>
@@ -8938,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8955,13 +8895,13 @@
         <v>109</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>3</v>
@@ -8979,7 +8919,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -8996,13 +8936,13 @@
         <v>110</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>3</v>
@@ -9020,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -9034,16 +8974,16 @@
         <v>10</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>397</v>
-      </c>
       <c r="G22" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>8</v>
@@ -9073,16 +9013,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>17</v>
@@ -9100,7 +9040,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -9117,13 +9057,13 @@
         <v>251</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>8</v>
@@ -9147,22 +9087,22 @@
         <v>238</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>8</v>
@@ -9195,10 +9135,10 @@
         <v>108</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>224</v>
@@ -9222,7 +9162,7 @@
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>50</v>
@@ -9234,10 +9174,10 @@
         <v>108</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>223</v>
@@ -9261,7 +9201,7 @@
     </row>
     <row r="28" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>50</v>
@@ -9273,7 +9213,7 @@
         <v>108</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>273</v>
@@ -9297,12 +9237,12 @@
         <v>3</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>50</v>
@@ -9314,7 +9254,7 @@
         <v>251</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>275</v>
@@ -9338,12 +9278,12 @@
         <v>3</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B30" s="45" t="s">
         <v>50</v>
@@ -9355,7 +9295,7 @@
         <v>251</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>277</v>
@@ -9382,7 +9322,7 @@
     </row>
     <row r="31" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>50</v>
@@ -9394,7 +9334,7 @@
         <v>251</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>276</v>
@@ -9421,7 +9361,7 @@
     </row>
     <row r="32" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>50</v>
@@ -9433,7 +9373,7 @@
         <v>303</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>226</v>
@@ -9457,12 +9397,12 @@
         <v>3</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>50</v>
@@ -9474,7 +9414,7 @@
         <v>304</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>226</v>
@@ -9498,12 +9438,12 @@
         <v>3</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>50</v>
@@ -9515,10 +9455,10 @@
         <v>253</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>55</v>
@@ -9542,7 +9482,7 @@
     </row>
     <row r="35" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>50</v>
@@ -9554,7 +9494,7 @@
         <v>253</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>232</v>
@@ -9581,7 +9521,7 @@
     </row>
     <row r="36" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>50</v>
@@ -9593,13 +9533,13 @@
         <v>254</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>8</v>
@@ -9620,7 +9560,7 @@
     </row>
     <row r="37" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>50</v>
@@ -9632,13 +9572,13 @@
         <v>255</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>8</v>
@@ -9662,7 +9602,7 @@
         <v>240</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>212</v>
@@ -9671,16 +9611,16 @@
         <v>251</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>3</v>
@@ -9694,16 +9634,14 @@
       <c r="L38" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="12" t="s">
-        <v>587</v>
-      </c>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>212</v>
@@ -9712,13 +9650,13 @@
         <v>251</v>
       </c>
       <c r="E39" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>427</v>
-      </c>
       <c r="G39" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>8</v>
@@ -9739,10 +9677,10 @@
     </row>
     <row r="40" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>212</v>
@@ -9751,13 +9689,13 @@
         <v>251</v>
       </c>
       <c r="E40" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>432</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>8</v>
@@ -9790,14 +9728,14 @@
         <v>249</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="H41" s="13" t="s">
         <v>3</v>
       </c>
@@ -9814,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9831,7 +9769,7 @@
         <v>250</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>229</v>
@@ -9858,7 +9796,7 @@
     </row>
     <row r="43" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B43" s="45" t="s">
         <v>50</v>
@@ -9870,10 +9808,10 @@
         <v>108</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>227</v>
@@ -9897,7 +9835,7 @@
     </row>
     <row r="44" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>50</v>
@@ -9909,10 +9847,10 @@
         <v>252</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>216</v>
@@ -9945,16 +9883,16 @@
         <v>212</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>443</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>17</v>
@@ -9972,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9984,16 +9922,16 @@
         <v>212</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E46" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>446</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>8</v>
@@ -10012,28 +9950,28 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B47" s="45"/>
       <c r="C47" s="44" t="s">
         <v>212</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E47" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>449</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>3</v>
@@ -10047,32 +9985,30 @@
       <c r="L47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="11" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E48" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>452</v>
-      </c>
       <c r="H48" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>3</v>
@@ -10086,30 +10022,32 @@
       <c r="L48" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="11"/>
+      <c r="M48" s="11" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="44" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E49" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>455</v>
-      </c>
       <c r="H49" s="13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>3</v>
@@ -10123,32 +10061,30 @@
       <c r="L49" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="11" t="s">
-        <v>590</v>
-      </c>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E50" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>458</v>
-      </c>
       <c r="H50" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>3</v>
@@ -10162,31 +10098,29 @@
       <c r="L50" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="11" t="s">
-        <v>591</v>
-      </c>
+      <c r="M50" s="11"/>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E51" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>8</v>
@@ -10207,25 +10141,25 @@
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C52" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>8</v>
@@ -10244,27 +10178,27 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C53" s="44" t="s">
         <v>212</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E53" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>466</v>
-      </c>
       <c r="G53" s="12" t="s">
-        <v>467</v>
+        <v>591</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>2</v>
@@ -10282,30 +10216,30 @@
         <v>3</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C54" s="44" t="s">
         <v>212</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>8</v>
@@ -10324,30 +10258,30 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B55" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="C55" s="44" t="s">
-        <v>562</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>564</v>
-      </c>
       <c r="E55" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>3</v>
@@ -10361,29 +10295,31 @@
       <c r="L55" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="11"/>
+      <c r="M55" s="11" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C56" s="44" t="s">
         <v>212</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>8</v>
@@ -10404,25 +10340,25 @@
     </row>
     <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C57" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>8</v>
@@ -10443,25 +10379,25 @@
     </row>
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C58" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>17</v>
@@ -10479,30 +10415,30 @@
         <v>3</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C59" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>17</v>
@@ -10520,33 +10456,33 @@
         <v>3</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>350</v>
+        <v>598</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>212</v>
+        <v>558</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>471</v>
+        <v>561</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>599</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>473</v>
+        <v>601</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>3</v>
@@ -10561,33 +10497,33 @@
         <v>3</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>541</v>
+        <v>348</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>480</v>
+        <v>561</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>468</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>3</v>
@@ -10601,29 +10537,31 @@
       <c r="L61" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M61" s="11"/>
+      <c r="M61" s="11" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>562</v>
+        <v>212</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>8</v>
@@ -10644,25 +10582,25 @@
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>212</v>
+        <v>558</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>595</v>
+        <v>479</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>8</v>
@@ -10681,30 +10619,30 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>3</v>
@@ -10718,34 +10656,32 @@
       <c r="L64" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M64" s="11" t="s">
-        <v>594</v>
-      </c>
+      <c r="M64" s="11"/>
     </row>
     <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>562</v>
+        <v>10</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>487</v>
+        <v>561</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>508</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>3</v>
@@ -10759,32 +10695,34 @@
       <c r="L65" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M65" s="11"/>
+      <c r="M65" s="11" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="B66" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>561</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>564</v>
-      </c>
       <c r="E66" s="12" t="s">
-        <v>489</v>
+        <v>594</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>491</v>
+        <v>596</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>3</v>
@@ -10798,32 +10736,34 @@
       <c r="L66" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="11"/>
+      <c r="M66" s="11" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>212</v>
+        <v>558</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>496</v>
+        <v>562</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>484</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>3</v>
@@ -10837,31 +10777,29 @@
       <c r="L67" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M67" s="11" t="s">
-        <v>597</v>
-      </c>
+      <c r="M67" s="11"/>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>8</v>
@@ -10882,28 +10820,28 @@
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>562</v>
+        <v>212</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>3</v>
@@ -10917,31 +10855,29 @@
       <c r="L69" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M69" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E70" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>495</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>502</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>8</v>
@@ -10960,30 +10896,30 @@
       </c>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>10</v>
+        <v>558</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>3</v>
@@ -10998,30 +10934,30 @@
         <v>3</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>8</v>
@@ -11040,30 +10976,30 @@
       </c>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E73" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>481</v>
-      </c>
       <c r="G73" s="12" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>3</v>
@@ -11077,29 +11013,31 @@
       <c r="L73" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M73" s="11"/>
+      <c r="M73" s="11" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>508</v>
+        <v>603</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>509</v>
+        <v>600</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>452</v>
+        <v>604</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>2</v>
@@ -11117,24 +11055,24 @@
         <v>3</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>501</v>
@@ -11159,68 +11097,66 @@
       </c>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E76" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B77" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="47" t="s">
+      <c r="C77" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="B77" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="E77" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="F77" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="G77" s="49" t="s">
-        <v>322</v>
+      <c r="D77" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>2</v>
@@ -11238,48 +11174,286 @@
         <v>3</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>601</v>
-      </c>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M78" s="11"/>
+    </row>
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G81" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="B82" s="48"/>
+      <c r="C82" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>608</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>609</v>
+      </c>
+      <c r="G82" s="49" t="s">
+        <v>610</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="47"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="J17:L17 H17:I76 H8:L16 J18:J77 K18:L76">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="Partially Passed">
+  <conditionalFormatting sqref="H8:L59 H61:L73 H75:L79 H81:L83">
+    <cfRule type="containsText" dxfId="101" priority="16" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="100" priority="17" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41 K41:L41">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="98" priority="13" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="97" priority="14" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="96" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:I77 K77:L77">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="Partially Passed">
-      <formula>NOT(ISERROR(SEARCH("Partially Passed",H77)))</formula>
+  <conditionalFormatting sqref="H60:L60">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Partially Passed">
+      <formula>NOT(ISERROR(SEARCH("Partially Passed",H60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",H77)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",H60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",H77)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",H60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:L74">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Partially Passed">
+      <formula>NOT(ISERROR(SEARCH("Partially Passed",H74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",H74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",H74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80:L80">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Partially Passed">
+      <formula>NOT(ISERROR(SEARCH("Partially Passed",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",H80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",H80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:L77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:L83">
       <formula1>STATUS</formula1>
     </dataValidation>
   </dataValidations>
@@ -11296,7 +11470,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11428,7 +11602,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -11465,7 +11639,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="17" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
@@ -11611,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11652,7 +11826,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11693,7 +11867,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11734,7 +11908,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11775,7 +11949,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11816,7 +11990,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="43" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11857,7 +12031,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="43" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11898,7 +12072,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="43" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11939,7 +12113,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11980,7 +12154,7 @@
         <v>3</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -12062,7 +12236,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -12079,13 +12253,13 @@
         <v>247</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>323</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>2</v>
@@ -12103,7 +12277,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -12120,13 +12294,13 @@
         <v>251</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>332</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>2</v>
@@ -12144,7 +12318,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -12185,7 +12359,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -12226,7 +12400,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
@@ -12267,7 +12441,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12308,12 +12482,12 @@
         <v>3</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>50</v>
@@ -12349,7 +12523,7 @@
         <v>3</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -12390,12 +12564,12 @@
         <v>3</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>50</v>
@@ -12431,7 +12605,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -12472,7 +12646,7 @@
         <v>3</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12513,7 +12687,7 @@
         <v>3</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12554,7 +12728,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12595,7 +12769,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12636,7 +12810,7 @@
         <v>3</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12677,7 +12851,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12718,7 +12892,7 @@
         <v>3</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12759,7 +12933,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12800,15 +12974,15 @@
         <v>3</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>212</v>
@@ -12817,13 +12991,13 @@
         <v>251</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F38" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>2</v>
@@ -12841,12 +13015,12 @@
         <v>3</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>50</v>
@@ -12858,7 +13032,7 @@
         <v>249</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>228</v>
@@ -12882,12 +13056,12 @@
         <v>3</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>50</v>
@@ -12899,7 +13073,7 @@
         <v>250</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>229</v>
@@ -12923,12 +13097,12 @@
         <v>3</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B41" s="45" t="s">
         <v>50</v>
@@ -12940,7 +13114,7 @@
         <v>108</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>230</v>
@@ -12964,12 +13138,12 @@
         <v>3</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B42" s="45" t="s">
         <v>50</v>
@@ -12981,7 +13155,7 @@
         <v>252</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>230</v>
@@ -13005,12 +13179,12 @@
         <v>3</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B43" s="45" t="s">
         <v>50</v>
@@ -13022,7 +13196,7 @@
         <v>108</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>231</v>
@@ -13046,12 +13220,12 @@
         <v>3</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>50</v>
@@ -13063,10 +13237,10 @@
         <v>108</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>227</v>
@@ -13087,12 +13261,12 @@
         <v>3</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>78</v>
@@ -13107,10 +13281,10 @@
         <v>197</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>2</v>
@@ -13128,7 +13302,7 @@
         <v>3</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -13496,24 +13670,24 @@
     <mergeCell ref="A1:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:L66">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:L39">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H39)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13535,7 +13709,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13555,7 +13729,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="51"/>
@@ -13667,7 +13841,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -13704,7 +13878,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="17" t="s">
-        <v>319</v>
+        <v>588</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
@@ -15528,24 +15702,24 @@
     <mergeCell ref="A1:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:L65">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:L36">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15687,7 +15861,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>2</v>
@@ -17502,46 +17676,46 @@
     <mergeCell ref="A1:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:K23 H25:K62">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:K8">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:K24">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K9">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Partially Passed">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Partially Passed">
       <formula>NOT(ISERROR(SEARCH("Partially Passed",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
